--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spn-Siglec1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spn-Siglec1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.787414000000001</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="H2">
-        <v>11.362242</v>
+        <v>16.07905</v>
       </c>
       <c r="I2">
-        <v>0.5877125485801681</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="J2">
-        <v>0.5877125485801681</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.120277</v>
+        <v>1.093736</v>
       </c>
       <c r="N2">
-        <v>0.360831</v>
+        <v>3.281208</v>
       </c>
       <c r="O2">
-        <v>0.001062914843064901</v>
+        <v>0.004351073087712599</v>
       </c>
       <c r="P2">
-        <v>0.001064140538569049</v>
+        <v>0.004369500290106573</v>
       </c>
       <c r="Q2">
-        <v>0.4555387936780001</v>
+        <v>5.862078610266668</v>
       </c>
       <c r="R2">
-        <v>4.099849143102001</v>
+        <v>52.75870749240001</v>
       </c>
       <c r="S2">
-        <v>0.0006246883913413623</v>
+        <v>0.00239115822008759</v>
       </c>
       <c r="T2">
-        <v>0.0006254087479698888</v>
+        <v>0.002432914522798699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.787414000000001</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="H3">
-        <v>11.362242</v>
+        <v>16.07905</v>
       </c>
       <c r="I3">
-        <v>0.5877125485801681</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="J3">
-        <v>0.5877125485801681</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>1.434671</v>
       </c>
       <c r="O3">
-        <v>0.004226169871254865</v>
+        <v>0.001902457380885857</v>
       </c>
       <c r="P3">
-        <v>0.004231043260167215</v>
+        <v>0.001910514466229354</v>
       </c>
       <c r="Q3">
-        <v>1.811231010264667</v>
+        <v>2.563127415838889</v>
       </c>
       <c r="R3">
-        <v>16.301079092382</v>
+        <v>23.06814674255</v>
       </c>
       <c r="S3">
-        <v>0.002483773065767917</v>
+        <v>0.001045506823941452</v>
       </c>
       <c r="T3">
-        <v>0.002486637217585817</v>
+        <v>0.001063764293924107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.787414000000001</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="H4">
-        <v>11.362242</v>
+        <v>16.07905</v>
       </c>
       <c r="I4">
-        <v>0.5877125485801681</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="J4">
-        <v>0.5877125485801681</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.61810866666667</v>
+        <v>125.3706816666667</v>
       </c>
       <c r="N4">
-        <v>208.854326</v>
+        <v>376.112045</v>
       </c>
       <c r="O4">
-        <v>0.6152308508518273</v>
+        <v>0.4987464973156379</v>
       </c>
       <c r="P4">
-        <v>0.6159403015597769</v>
+        <v>0.5008587354840279</v>
       </c>
       <c r="Q4">
-        <v>263.6725994176547</v>
+        <v>671.9471530174723</v>
       </c>
       <c r="R4">
-        <v>2373.053394758892</v>
+        <v>6047.52437715725</v>
       </c>
       <c r="S4">
-        <v>0.3615788913192727</v>
+        <v>0.2740891184209301</v>
       </c>
       <c r="T4">
-        <v>0.3619958444029338</v>
+        <v>0.2788754801524371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.787414000000001</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="H5">
-        <v>11.362242</v>
+        <v>16.07905</v>
       </c>
       <c r="I5">
-        <v>0.5877125485801681</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="J5">
-        <v>0.5877125485801681</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.391011</v>
+        <v>3.1802775</v>
       </c>
       <c r="N5">
-        <v>0.782022</v>
+        <v>6.360555</v>
       </c>
       <c r="O5">
-        <v>0.003455451962566825</v>
+        <v>0.01265170008275114</v>
       </c>
       <c r="P5">
-        <v>0.002306291067709939</v>
+        <v>0.008470187479043942</v>
       </c>
       <c r="Q5">
-        <v>1.480920535554</v>
+        <v>17.045280312125</v>
       </c>
       <c r="R5">
-        <v>8.885523213324001</v>
+        <v>102.27168187275</v>
       </c>
       <c r="S5">
-        <v>0.002030812479416492</v>
+        <v>0.006952817394951442</v>
       </c>
       <c r="T5">
-        <v>0.001355436201171486</v>
+        <v>0.004716155340520894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.787414000000001</v>
+        <v>5.359683333333334</v>
       </c>
       <c r="H6">
-        <v>11.362242</v>
+        <v>16.07905</v>
       </c>
       <c r="I6">
-        <v>0.5877125485801681</v>
+        <v>0.5495559766256753</v>
       </c>
       <c r="J6">
-        <v>0.5877125485801681</v>
+        <v>0.5567946816040513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.55008066666667</v>
+        <v>121.2486343333333</v>
       </c>
       <c r="N6">
-        <v>127.650242</v>
+        <v>363.745903</v>
       </c>
       <c r="O6">
-        <v>0.3760246124712861</v>
+        <v>0.4823482721330124</v>
       </c>
       <c r="P6">
-        <v>0.376458223573777</v>
+        <v>0.4843910622805923</v>
       </c>
       <c r="Q6">
-        <v>161.1547712180627</v>
+        <v>649.8542846257944</v>
       </c>
       <c r="R6">
-        <v>1450.392940962565</v>
+        <v>5848.688561632151</v>
       </c>
       <c r="S6">
-        <v>0.2209943833243696</v>
+        <v>0.2650773757657647</v>
       </c>
       <c r="T6">
-        <v>0.2212492220105072</v>
+        <v>0.2697063672943706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.656916666666666</v>
+        <v>0.380377</v>
       </c>
       <c r="H7">
-        <v>7.970749999999999</v>
+        <v>0.760754</v>
       </c>
       <c r="I7">
-        <v>0.4122874514198319</v>
+        <v>0.03900201573866823</v>
       </c>
       <c r="J7">
-        <v>0.4122874514198319</v>
+        <v>0.02634383133387908</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.120277</v>
+        <v>1.093736</v>
       </c>
       <c r="N7">
-        <v>0.360831</v>
+        <v>3.281208</v>
       </c>
       <c r="O7">
-        <v>0.001062914843064901</v>
+        <v>0.004351073087712599</v>
       </c>
       <c r="P7">
-        <v>0.001064140538569049</v>
+        <v>0.004369500290106573</v>
       </c>
       <c r="Q7">
-        <v>0.3195659659166666</v>
+        <v>0.4160320184720001</v>
       </c>
       <c r="R7">
-        <v>2.87609369325</v>
+        <v>2.496192110832</v>
       </c>
       <c r="S7">
-        <v>0.0004382264517235386</v>
+        <v>0.0001697006210470626</v>
       </c>
       <c r="T7">
-        <v>0.0004387317905991607</v>
+        <v>0.0001151093786559033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>2.656916666666666</v>
+        <v>0.380377</v>
       </c>
       <c r="H8">
-        <v>7.970749999999999</v>
+        <v>0.760754</v>
       </c>
       <c r="I8">
-        <v>0.4122874514198319</v>
+        <v>0.03900201573866823</v>
       </c>
       <c r="J8">
-        <v>0.4122874514198319</v>
+        <v>0.02634383133387908</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>1.434671</v>
       </c>
       <c r="O8">
-        <v>0.004226169871254865</v>
+        <v>0.001902457380885857</v>
       </c>
       <c r="P8">
-        <v>0.004231043260167215</v>
+        <v>0.001910514466229354</v>
       </c>
       <c r="Q8">
-        <v>1.270600430361111</v>
+        <v>0.1819052836556667</v>
       </c>
       <c r="R8">
-        <v>11.43540387325</v>
+        <v>1.091431701934</v>
       </c>
       <c r="S8">
-        <v>0.001742396805486947</v>
+        <v>7.419967271145574E-05</v>
       </c>
       <c r="T8">
-        <v>0.001744406042581398</v>
+        <v>5.033027085928213E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>2.656916666666666</v>
+        <v>0.380377</v>
       </c>
       <c r="H9">
-        <v>7.970749999999999</v>
+        <v>0.760754</v>
       </c>
       <c r="I9">
-        <v>0.4122874514198319</v>
+        <v>0.03900201573866823</v>
       </c>
       <c r="J9">
-        <v>0.4122874514198319</v>
+        <v>0.02634383133387908</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.61810866666667</v>
+        <v>125.3706816666667</v>
       </c>
       <c r="N9">
-        <v>208.854326</v>
+        <v>376.112045</v>
       </c>
       <c r="O9">
-        <v>0.6152308508518273</v>
+        <v>0.4987464973156379</v>
       </c>
       <c r="P9">
-        <v>0.6159403015597769</v>
+        <v>0.5008587354840279</v>
       </c>
       <c r="Q9">
-        <v>184.9695132182778</v>
+        <v>47.68812378032167</v>
       </c>
       <c r="R9">
-        <v>1664.7256189645</v>
+        <v>286.12874268193</v>
       </c>
       <c r="S9">
-        <v>0.2536519595325545</v>
+        <v>0.01945211873791016</v>
       </c>
       <c r="T9">
-        <v>0.2539444571568431</v>
+        <v>0.01319453804969119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>2.656916666666666</v>
+        <v>0.380377</v>
       </c>
       <c r="H10">
-        <v>7.970749999999999</v>
+        <v>0.760754</v>
       </c>
       <c r="I10">
-        <v>0.4122874514198319</v>
+        <v>0.03900201573866823</v>
       </c>
       <c r="J10">
-        <v>0.4122874514198319</v>
+        <v>0.02634383133387908</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.391011</v>
+        <v>3.1802775</v>
       </c>
       <c r="N10">
-        <v>0.782022</v>
+        <v>6.360555</v>
       </c>
       <c r="O10">
-        <v>0.003455451962566825</v>
+        <v>0.01265170008275114</v>
       </c>
       <c r="P10">
-        <v>0.002306291067709939</v>
+        <v>0.008470187479043942</v>
       </c>
       <c r="Q10">
-        <v>1.03888364275</v>
+        <v>1.2097044146175</v>
       </c>
       <c r="R10">
-        <v>6.233301856499999</v>
+        <v>4.83881765847</v>
       </c>
       <c r="S10">
-        <v>0.001424639483150333</v>
+        <v>0.0004934418057483702</v>
       </c>
       <c r="T10">
-        <v>0.0009508548665384538</v>
+        <v>0.000223137190314268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.380377</v>
+      </c>
+      <c r="H11">
+        <v>0.760754</v>
+      </c>
+      <c r="I11">
+        <v>0.03900201573866823</v>
+      </c>
+      <c r="J11">
+        <v>0.02634383133387908</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>121.2486343333333</v>
+      </c>
+      <c r="N11">
+        <v>363.745903</v>
+      </c>
+      <c r="O11">
+        <v>0.4823482721330124</v>
+      </c>
+      <c r="P11">
+        <v>0.4843910622805923</v>
+      </c>
+      <c r="Q11">
+        <v>46.12019178181033</v>
+      </c>
+      <c r="R11">
+        <v>276.721150690862</v>
+      </c>
+      <c r="S11">
+        <v>0.01881255490125118</v>
+      </c>
+      <c r="T11">
+        <v>0.01276071644435844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.012692</v>
+      </c>
+      <c r="H12">
+        <v>12.038076</v>
+      </c>
+      <c r="I12">
+        <v>0.4114420076356565</v>
+      </c>
+      <c r="J12">
+        <v>0.4168614870620697</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.093736</v>
+      </c>
+      <c r="N12">
+        <v>3.281208</v>
+      </c>
+      <c r="O12">
+        <v>0.004351073087712599</v>
+      </c>
+      <c r="P12">
+        <v>0.004369500290106573</v>
+      </c>
+      <c r="Q12">
+        <v>4.388825697312001</v>
+      </c>
+      <c r="R12">
+        <v>39.499431275808</v>
+      </c>
+      <c r="S12">
+        <v>0.001790214246577947</v>
+      </c>
+      <c r="T12">
+        <v>0.001821476388651971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.012692</v>
+      </c>
+      <c r="H13">
+        <v>12.038076</v>
+      </c>
+      <c r="I13">
+        <v>0.4114420076356565</v>
+      </c>
+      <c r="J13">
+        <v>0.4168614870620697</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.4782236666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.434671</v>
+      </c>
+      <c r="O13">
+        <v>0.001902457380885857</v>
+      </c>
+      <c r="P13">
+        <v>0.001910514466229354</v>
+      </c>
+      <c r="Q13">
+        <v>1.918964281444</v>
+      </c>
+      <c r="R13">
+        <v>17.270678532996</v>
+      </c>
+      <c r="S13">
+        <v>0.0007827508842329498</v>
+      </c>
+      <c r="T13">
+        <v>0.0007964199014459649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.012692</v>
+      </c>
+      <c r="H14">
+        <v>12.038076</v>
+      </c>
+      <c r="I14">
+        <v>0.4114420076356565</v>
+      </c>
+      <c r="J14">
+        <v>0.4168614870620697</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>125.3706816666667</v>
+      </c>
+      <c r="N14">
+        <v>376.112045</v>
+      </c>
+      <c r="O14">
+        <v>0.4987464973156379</v>
+      </c>
+      <c r="P14">
+        <v>0.5008587354840279</v>
+      </c>
+      <c r="Q14">
+        <v>503.07393135838</v>
+      </c>
+      <c r="R14">
+        <v>4527.665382225419</v>
+      </c>
+      <c r="S14">
+        <v>0.2052052601567976</v>
+      </c>
+      <c r="T14">
+        <v>0.2087887172818997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.656916666666666</v>
-      </c>
-      <c r="H11">
-        <v>7.970749999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.4122874514198319</v>
-      </c>
-      <c r="J11">
-        <v>0.4122874514198319</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>42.55008066666667</v>
-      </c>
-      <c r="N11">
-        <v>127.650242</v>
-      </c>
-      <c r="O11">
-        <v>0.3760246124712861</v>
-      </c>
-      <c r="P11">
-        <v>0.376458223573777</v>
-      </c>
-      <c r="Q11">
-        <v>113.0520184912778</v>
-      </c>
-      <c r="R11">
-        <v>1017.4681664215</v>
-      </c>
-      <c r="S11">
-        <v>0.1550302291469165</v>
-      </c>
-      <c r="T11">
-        <v>0.1552090015632698</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.012692</v>
+      </c>
+      <c r="H15">
+        <v>12.038076</v>
+      </c>
+      <c r="I15">
+        <v>0.4114420076356565</v>
+      </c>
+      <c r="J15">
+        <v>0.4168614870620697</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.1802775</v>
+      </c>
+      <c r="N15">
+        <v>6.360555</v>
+      </c>
+      <c r="O15">
+        <v>0.01265170008275114</v>
+      </c>
+      <c r="P15">
+        <v>0.008470187479043942</v>
+      </c>
+      <c r="Q15">
+        <v>12.76147408203</v>
+      </c>
+      <c r="R15">
+        <v>76.56884449217999</v>
+      </c>
+      <c r="S15">
+        <v>0.005205440882051332</v>
+      </c>
+      <c r="T15">
+        <v>0.003530894948208781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.012692</v>
+      </c>
+      <c r="H16">
+        <v>12.038076</v>
+      </c>
+      <c r="I16">
+        <v>0.4114420076356565</v>
+      </c>
+      <c r="J16">
+        <v>0.4168614870620697</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>121.2486343333333</v>
+      </c>
+      <c r="N16">
+        <v>363.745903</v>
+      </c>
+      <c r="O16">
+        <v>0.4823482721330124</v>
+      </c>
+      <c r="P16">
+        <v>0.4843910622805923</v>
+      </c>
+      <c r="Q16">
+        <v>486.533425000292</v>
+      </c>
+      <c r="R16">
+        <v>4378.800825002628</v>
+      </c>
+      <c r="S16">
+        <v>0.1984583414659966</v>
+      </c>
+      <c r="T16">
+        <v>0.2019239785418633</v>
       </c>
     </row>
   </sheetData>
